--- a/final/src/main/webapp/resources/optionfiles/종로3가 아파트.xlsx
+++ b/final/src/main/webapp/resources/optionfiles/종로3가 아파트.xlsx
@@ -111,7 +111,7 @@
     <t>303</t>
   </si>
   <si>
-    <t>803</t>
+    <t>101</t>
   </si>
   <si>
     <t>84</t>
@@ -135,142 +135,142 @@
     <t>드레스룸 없음</t>
   </si>
   <si>
-    <t>101</t>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>704</t>
   </si>
   <si>
     <t>801</t>
   </si>
   <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
     <t>904</t>
   </si>
   <si>
-    <t>1204</t>
+    <t>1001</t>
   </si>
   <si>
-    <t>604</t>
+    <t>1002</t>
   </si>
   <si>
-    <t>602</t>
+    <t>1003</t>
   </si>
   <si>
-    <t>204</t>
+    <t>1004</t>
   </si>
   <si>
-    <t>704</t>
+    <t>1101</t>
   </si>
   <si>
-    <t>603</t>
+    <t>1102</t>
   </si>
   <si>
-    <t>102</t>
+    <t>1103</t>
   </si>
   <si>
-    <t>104</t>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>1202</t>
   </si>
   <si>
     <t>1203</t>
   </si>
   <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>901</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1103</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>1202</t>
-  </si>
-  <si>
-    <t>702</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>1201</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>703</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>902</t>
+    <t>1204</t>
   </si>
   <si>
     <t>2</t>
@@ -285,40 +285,40 @@
     <t>기본형(85cm)</t>
   </si>
   <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
     <t>1304</t>
+  </si>
+  <si>
+    <t>1401</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>1403</t>
   </si>
   <si>
     <t>1404</t>
   </si>
   <si>
-    <t>1503</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>1504</t>
-  </si>
-  <si>
-    <t>1403</t>
-  </si>
-  <si>
-    <t>1301</t>
+    <t>1501</t>
   </si>
   <si>
     <t>1502</t>
   </si>
   <si>
-    <t>1402</t>
+    <t>1503</t>
   </si>
   <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>1501</t>
-  </si>
-  <si>
-    <t>1401</t>
+    <t>1504</t>
   </si>
   <si>
     <t>305</t>
@@ -706,7 +706,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
@@ -783,7 +783,7 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
@@ -860,7 +860,7 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -937,7 +937,7 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -1014,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
         <v>32</v>
@@ -1091,7 +1091,7 @@
         <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -1168,7 +1168,7 @@
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -1245,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -4246,7 +4246,7 @@
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -4258,10 +4258,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>87</v>
@@ -4323,7 +4323,7 @@
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -4335,10 +4335,10 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>87</v>
@@ -4412,10 +4412,10 @@
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
         <v>87</v>
@@ -4489,10 +4489,10 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>87</v>
@@ -4566,10 +4566,10 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
         <v>87</v>
@@ -4643,10 +4643,10 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -4720,10 +4720,10 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
         <v>87</v>
@@ -4797,10 +4797,10 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
         <v>87</v>
@@ -4874,10 +4874,10 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>87</v>
@@ -4951,10 +4951,10 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>87</v>
@@ -5028,10 +5028,10 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -5105,10 +5105,10 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
         <v>87</v>
@@ -5182,10 +5182,10 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
         <v>87</v>
@@ -5259,10 +5259,10 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
         <v>87</v>
@@ -5336,10 +5336,10 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
         <v>87</v>
@@ -5413,10 +5413,10 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
         <v>87</v>
@@ -5490,10 +5490,10 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
         <v>87</v>
@@ -5567,10 +5567,10 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
         <v>87</v>
@@ -5644,10 +5644,10 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
         <v>87</v>
@@ -5721,10 +5721,10 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
         <v>87</v>
@@ -5798,10 +5798,10 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>57</v>
-      </c>
-      <c r="H22" t="s">
-        <v>93</v>
       </c>
       <c r="I22" t="s">
         <v>87</v>
@@ -5875,10 +5875,10 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="I23" t="s">
         <v>87</v>
@@ -5952,10 +5952,10 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
         <v>87</v>
@@ -6029,10 +6029,10 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
         <v>87</v>
@@ -6106,10 +6106,10 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I26" t="s">
         <v>87</v>
@@ -6183,10 +6183,10 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
         <v>87</v>
@@ -6260,10 +6260,10 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="I28" t="s">
         <v>87</v>
@@ -6337,10 +6337,10 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s">
         <v>87</v>
@@ -6414,10 +6414,10 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s">
         <v>87</v>
@@ -6491,10 +6491,10 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s">
         <v>87</v>
@@ -6568,10 +6568,10 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I32" t="s">
         <v>87</v>
@@ -6645,10 +6645,10 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I33" t="s">
         <v>87</v>
@@ -6722,10 +6722,10 @@
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
         <v>87</v>
@@ -6799,10 +6799,10 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
         <v>87</v>
@@ -6876,10 +6876,10 @@
         <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s">
         <v>87</v>
@@ -6953,10 +6953,10 @@
         <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s">
         <v>87</v>
@@ -7030,10 +7030,10 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s">
         <v>87</v>
@@ -7107,10 +7107,10 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
         <v>87</v>
@@ -7184,10 +7184,10 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s">
         <v>87</v>
@@ -7261,10 +7261,10 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s">
         <v>87</v>
@@ -7338,10 +7338,10 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
         <v>87</v>
@@ -7415,10 +7415,10 @@
         <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s">
         <v>87</v>
@@ -7492,10 +7492,10 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
         <v>87</v>
@@ -7569,10 +7569,10 @@
         <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s">
         <v>87</v>
@@ -7646,10 +7646,10 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
         <v>87</v>
@@ -7723,10 +7723,10 @@
         <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s">
         <v>87</v>
@@ -7800,10 +7800,10 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s">
         <v>87</v>
@@ -7877,10 +7877,10 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s">
         <v>87</v>
@@ -7954,10 +7954,10 @@
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s">
         <v>87</v>
@@ -8031,10 +8031,10 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s">
         <v>87</v>
@@ -8108,10 +8108,10 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s">
         <v>87</v>
@@ -8185,10 +8185,10 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s">
         <v>87</v>
@@ -8262,10 +8262,10 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I54" t="s">
         <v>87</v>
@@ -8339,10 +8339,10 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I55" t="s">
         <v>87</v>
@@ -8416,10 +8416,10 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="I56" t="s">
         <v>87</v>
@@ -8493,10 +8493,10 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="I57" t="s">
         <v>87</v>
@@ -8570,10 +8570,10 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="I58" t="s">
         <v>87</v>
@@ -8647,10 +8647,10 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="I59" t="s">
         <v>87</v>
@@ -8724,10 +8724,10 @@
         <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="I60" t="s">
         <v>87</v>
@@ -8801,10 +8801,10 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I61" t="s">
         <v>87</v>
@@ -8968,10 +8968,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
@@ -9045,10 +9045,10 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
@@ -9122,10 +9122,10 @@
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
@@ -9199,10 +9199,10 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
@@ -9276,10 +9276,10 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
@@ -9353,10 +9353,10 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -9430,10 +9430,10 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -9507,10 +9507,10 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
         <v>32</v>
@@ -9584,10 +9584,10 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -9661,10 +9661,10 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -9738,10 +9738,10 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -9815,10 +9815,10 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
         <v>32</v>
@@ -9892,10 +9892,10 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
@@ -9969,10 +9969,10 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
@@ -10046,10 +10046,10 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
@@ -10123,10 +10123,10 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -10200,10 +10200,10 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -10277,10 +10277,10 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
@@ -10354,10 +10354,10 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
         <v>32</v>
@@ -10431,10 +10431,10 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
         <v>32</v>
@@ -10508,10 +10508,10 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
@@ -10585,10 +10585,10 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I23" t="s">
         <v>32</v>
@@ -10662,10 +10662,10 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
         <v>32</v>
@@ -10739,10 +10739,10 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -10816,10 +10816,10 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -10893,10 +10893,10 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
@@ -10970,10 +10970,10 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
@@ -11047,10 +11047,10 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -11124,10 +11124,10 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
@@ -11201,10 +11201,10 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
@@ -11278,10 +11278,10 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
@@ -11355,10 +11355,10 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
@@ -11432,10 +11432,10 @@
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
@@ -11509,10 +11509,10 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
         <v>32</v>
@@ -11586,10 +11586,10 @@
         <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s">
         <v>32</v>
@@ -11663,10 +11663,10 @@
         <v>29</v>
       </c>
       <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
         <v>72</v>
-      </c>
-      <c r="H37" t="s">
-        <v>65</v>
       </c>
       <c r="I37" t="s">
         <v>32</v>
@@ -11740,10 +11740,10 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s">
         <v>32</v>
@@ -11817,10 +11817,10 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
         <v>32</v>
@@ -11894,10 +11894,10 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s">
         <v>32</v>
@@ -11971,10 +11971,10 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s">
         <v>32</v>
@@ -12048,10 +12048,10 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
         <v>32</v>
@@ -12125,10 +12125,10 @@
         <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s">
         <v>32</v>
@@ -12202,10 +12202,10 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
@@ -12279,10 +12279,10 @@
         <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
@@ -12356,10 +12356,10 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
         <v>32</v>
@@ -12433,10 +12433,10 @@
         <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s">
         <v>32</v>
@@ -12510,10 +12510,10 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s">
         <v>32</v>
@@ -12587,10 +12587,10 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s">
         <v>32</v>
@@ -12754,10 +12754,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>87</v>
@@ -12831,10 +12831,10 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>87</v>
@@ -12908,10 +12908,10 @@
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
         <v>87</v>
@@ -12985,10 +12985,10 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>87</v>
@@ -13062,10 +13062,10 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
         <v>87</v>
@@ -13139,10 +13139,10 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -13216,10 +13216,10 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
         <v>87</v>
@@ -13293,10 +13293,10 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
         <v>87</v>
@@ -13370,10 +13370,10 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>87</v>
@@ -13447,10 +13447,10 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>87</v>
@@ -13524,10 +13524,10 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -13601,10 +13601,10 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
         <v>87</v>
@@ -13678,10 +13678,10 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
         <v>87</v>
@@ -13755,10 +13755,10 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
         <v>87</v>
@@ -13832,10 +13832,10 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
         <v>51</v>
-      </c>
-      <c r="H16" t="s">
-        <v>61</v>
       </c>
       <c r="I16" t="s">
         <v>87</v>
@@ -13909,10 +13909,10 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
         <v>87</v>
@@ -13986,10 +13986,10 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
         <v>87</v>
@@ -14063,10 +14063,10 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
         <v>87</v>
@@ -14140,10 +14140,10 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
         <v>87</v>
@@ -14217,10 +14217,10 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
         <v>87</v>
@@ -14294,10 +14294,10 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
         <v>87</v>
@@ -14371,10 +14371,10 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I23" t="s">
         <v>87</v>
@@ -14448,10 +14448,10 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
         <v>87</v>
@@ -14525,10 +14525,10 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
         <v>87</v>
@@ -14602,10 +14602,10 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I26" t="s">
         <v>87</v>
@@ -14679,10 +14679,10 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
         <v>87</v>
@@ -14756,10 +14756,10 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I28" t="s">
         <v>87</v>
@@ -14833,10 +14833,10 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s">
         <v>87</v>
@@ -14910,10 +14910,10 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s">
         <v>87</v>
@@ -14987,10 +14987,10 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s">
         <v>87</v>
@@ -15064,10 +15064,10 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I32" t="s">
         <v>87</v>
@@ -15141,10 +15141,10 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="I33" t="s">
         <v>87</v>
@@ -15218,10 +15218,10 @@
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
         <v>87</v>
@@ -15295,10 +15295,10 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
         <v>87</v>
@@ -15372,10 +15372,10 @@
         <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s">
         <v>87</v>
@@ -15449,10 +15449,10 @@
         <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s">
         <v>87</v>
@@ -15526,10 +15526,10 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s">
         <v>87</v>
@@ -15603,10 +15603,10 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
         <v>87</v>
@@ -15680,10 +15680,10 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s">
         <v>87</v>
@@ -15757,10 +15757,10 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s">
         <v>87</v>
@@ -15834,10 +15834,10 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
         <v>87</v>
@@ -15911,10 +15911,10 @@
         <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s">
         <v>87</v>
@@ -15988,10 +15988,10 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
         <v>87</v>
@@ -16065,10 +16065,10 @@
         <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s">
         <v>87</v>
@@ -16142,10 +16142,10 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
         <v>87</v>
@@ -16219,10 +16219,10 @@
         <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s">
         <v>87</v>
@@ -16296,10 +16296,10 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s">
         <v>87</v>
@@ -16373,10 +16373,10 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s">
         <v>87</v>
@@ -16450,10 +16450,10 @@
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s">
         <v>87</v>
@@ -16527,10 +16527,10 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s">
         <v>87</v>
@@ -16604,10 +16604,10 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s">
         <v>87</v>
@@ -16681,10 +16681,10 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s">
         <v>87</v>
@@ -16758,10 +16758,10 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="I54" t="s">
         <v>87</v>
@@ -16835,10 +16835,10 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I55" t="s">
         <v>87</v>
@@ -16912,10 +16912,10 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I56" t="s">
         <v>87</v>
@@ -16989,10 +16989,10 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="I57" t="s">
         <v>87</v>
@@ -17066,10 +17066,10 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="I58" t="s">
         <v>87</v>
@@ -17143,10 +17143,10 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I59" t="s">
         <v>87</v>
@@ -17220,10 +17220,10 @@
         <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="I60" t="s">
         <v>87</v>
@@ -17297,10 +17297,10 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I61" t="s">
         <v>87</v>
@@ -17467,7 +17467,7 @@
         <v>101</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>102</v>
@@ -17544,7 +17544,7 @@
         <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>102</v>
@@ -17621,7 +17621,7 @@
         <v>101</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
         <v>102</v>
@@ -17698,7 +17698,7 @@
         <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>102</v>
@@ -17775,7 +17775,7 @@
         <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
         <v>102</v>
@@ -17852,7 +17852,7 @@
         <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
         <v>102</v>
@@ -17929,7 +17929,7 @@
         <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
         <v>102</v>
@@ -18006,7 +18006,7 @@
         <v>101</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
         <v>102</v>
@@ -18083,7 +18083,7 @@
         <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
         <v>102</v>
@@ -18160,7 +18160,7 @@
         <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>102</v>
@@ -18237,7 +18237,7 @@
         <v>101</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
         <v>102</v>
@@ -18314,7 +18314,7 @@
         <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
         <v>102</v>
@@ -18391,7 +18391,7 @@
         <v>101</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
         <v>102</v>
@@ -18468,7 +18468,7 @@
         <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
         <v>102</v>
@@ -18545,7 +18545,7 @@
         <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
         <v>102</v>
@@ -18622,7 +18622,7 @@
         <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
         <v>102</v>
@@ -18699,7 +18699,7 @@
         <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
         <v>102</v>
@@ -18776,7 +18776,7 @@
         <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
         <v>102</v>
@@ -18853,7 +18853,7 @@
         <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
         <v>102</v>
@@ -18930,7 +18930,7 @@
         <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
         <v>102</v>
@@ -19007,7 +19007,7 @@
         <v>101</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
         <v>102</v>
@@ -19084,7 +19084,7 @@
         <v>101</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I23" t="s">
         <v>102</v>
@@ -19161,7 +19161,7 @@
         <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
         <v>102</v>
@@ -19238,7 +19238,7 @@
         <v>101</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
         <v>102</v>
@@ -19315,7 +19315,7 @@
         <v>101</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I26" t="s">
         <v>102</v>
@@ -19392,7 +19392,7 @@
         <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
         <v>102</v>
@@ -19469,7 +19469,7 @@
         <v>101</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="I28" t="s">
         <v>102</v>
@@ -19546,7 +19546,7 @@
         <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s">
         <v>102</v>
@@ -19623,7 +19623,7 @@
         <v>101</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s">
         <v>102</v>
@@ -19700,7 +19700,7 @@
         <v>101</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s">
         <v>102</v>
@@ -19777,7 +19777,7 @@
         <v>101</v>
       </c>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I32" t="s">
         <v>102</v>
@@ -19854,7 +19854,7 @@
         <v>101</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I33" t="s">
         <v>102</v>
@@ -19931,7 +19931,7 @@
         <v>101</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
         <v>102</v>
@@ -20008,7 +20008,7 @@
         <v>101</v>
       </c>
       <c r="H35" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
         <v>102</v>
@@ -20085,7 +20085,7 @@
         <v>101</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s">
         <v>102</v>
@@ -20162,7 +20162,7 @@
         <v>101</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s">
         <v>102</v>
@@ -20239,7 +20239,7 @@
         <v>101</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s">
         <v>102</v>
@@ -20316,7 +20316,7 @@
         <v>101</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
         <v>102</v>
@@ -20393,7 +20393,7 @@
         <v>101</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s">
         <v>102</v>
@@ -20470,7 +20470,7 @@
         <v>101</v>
       </c>
       <c r="H41" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s">
         <v>102</v>

--- a/final/src/main/webapp/resources/optionfiles/종로3가 아파트.xlsx
+++ b/final/src/main/webapp/resources/optionfiles/종로3가 아파트.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6525" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6525" uniqueCount="117">
   <si>
     <t>유저 번호</t>
   </si>
@@ -285,6 +285,48 @@
     <t>기본형(85cm)</t>
   </si>
   <si>
+    <t>확장</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A타입 </t>
+  </si>
+  <si>
+    <t>유광 원목 마루</t>
+  </si>
+  <si>
+    <t>수납 강화형</t>
+  </si>
+  <si>
+    <t>쇼룸형</t>
+  </si>
+  <si>
+    <t>하이브리드 쿡탑</t>
+  </si>
+  <si>
+    <t>기본 형</t>
+  </si>
+  <si>
+    <t>있음</t>
+  </si>
+  <si>
+    <t>있음/욕조대체</t>
+  </si>
+  <si>
+    <t>20260000</t>
+  </si>
+  <si>
+    <t>원목 마루</t>
+  </si>
+  <si>
+    <t>캐슬미드웨이 선반</t>
+  </si>
+  <si>
+    <t>일반형</t>
+  </si>
+  <si>
+    <t>19560000</t>
+  </si>
+  <si>
     <t>1301</t>
   </si>
   <si>
@@ -4267,52 +4309,52 @@
         <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="U2" t="s">
         <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="W2" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="X2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="Y2" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -4353,43 +4395,43 @@
         <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="W3" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="X3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y3" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -7957,7 +7999,7 @@
         <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I50" t="s">
         <v>87</v>
@@ -8034,7 +8076,7 @@
         <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="I51" t="s">
         <v>87</v>
@@ -8111,7 +8153,7 @@
         <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I52" t="s">
         <v>87</v>
@@ -8188,7 +8230,7 @@
         <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I53" t="s">
         <v>87</v>
@@ -8265,7 +8307,7 @@
         <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="I54" t="s">
         <v>87</v>
@@ -8342,7 +8384,7 @@
         <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I55" t="s">
         <v>87</v>
@@ -8419,7 +8461,7 @@
         <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="I56" t="s">
         <v>87</v>
@@ -8496,7 +8538,7 @@
         <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I57" t="s">
         <v>87</v>
@@ -8573,7 +8615,7 @@
         <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I58" t="s">
         <v>87</v>
@@ -8650,7 +8692,7 @@
         <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="I59" t="s">
         <v>87</v>
@@ -8727,7 +8769,7 @@
         <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="I60" t="s">
         <v>87</v>
@@ -8804,7 +8846,7 @@
         <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I61" t="s">
         <v>87</v>
@@ -16453,7 +16495,7 @@
         <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I50" t="s">
         <v>87</v>
@@ -16530,7 +16572,7 @@
         <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="I51" t="s">
         <v>87</v>
@@ -16607,7 +16649,7 @@
         <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I52" t="s">
         <v>87</v>
@@ -16684,7 +16726,7 @@
         <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I53" t="s">
         <v>87</v>
@@ -16761,7 +16803,7 @@
         <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="I54" t="s">
         <v>87</v>
@@ -16838,7 +16880,7 @@
         <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I55" t="s">
         <v>87</v>
@@ -16915,7 +16957,7 @@
         <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="I56" t="s">
         <v>87</v>
@@ -16992,7 +17034,7 @@
         <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I57" t="s">
         <v>87</v>
@@ -17069,7 +17111,7 @@
         <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I58" t="s">
         <v>87</v>
@@ -17146,7 +17188,7 @@
         <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="I59" t="s">
         <v>87</v>
@@ -17223,7 +17265,7 @@
         <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="I60" t="s">
         <v>87</v>
@@ -17300,7 +17342,7 @@
         <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I61" t="s">
         <v>87</v>
@@ -17464,13 +17506,13 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
@@ -17541,13 +17583,13 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
@@ -17618,13 +17660,13 @@
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
@@ -17695,13 +17737,13 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -17772,13 +17814,13 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -17849,13 +17891,13 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
@@ -17926,13 +17968,13 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
@@ -18003,13 +18045,13 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
         <v>25</v>
@@ -18080,13 +18122,13 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
@@ -18157,13 +18199,13 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
         <v>25</v>
@@ -18234,13 +18276,13 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
         <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
@@ -18311,13 +18353,13 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
         <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
         <v>25</v>
@@ -18388,13 +18430,13 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
         <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
         <v>25</v>
@@ -18465,13 +18507,13 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
         <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
         <v>25</v>
@@ -18542,13 +18584,13 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
         <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
         <v>25</v>
@@ -18619,13 +18661,13 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
         <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J17" t="s">
         <v>25</v>
@@ -18696,13 +18738,13 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
         <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
         <v>25</v>
@@ -18773,13 +18815,13 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
         <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J19" t="s">
         <v>25</v>
@@ -18850,13 +18892,13 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
         <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J20" t="s">
         <v>25</v>
@@ -18927,13 +18969,13 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J21" t="s">
         <v>25</v>
@@ -19004,13 +19046,13 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
         <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
@@ -19081,13 +19123,13 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
         <v>58</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J23" t="s">
         <v>25</v>
@@ -19158,13 +19200,13 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J24" t="s">
         <v>25</v>
@@ -19235,13 +19277,13 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J25" t="s">
         <v>25</v>
@@ -19312,13 +19354,13 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
         <v>61</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J26" t="s">
         <v>25</v>
@@ -19389,13 +19431,13 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H27" t="s">
         <v>62</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s">
         <v>25</v>
@@ -19466,13 +19508,13 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
         <v>63</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J28" t="s">
         <v>25</v>
@@ -19543,13 +19585,13 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
         <v>64</v>
       </c>
       <c r="I29" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s">
         <v>25</v>
@@ -19620,13 +19662,13 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H30" t="s">
         <v>65</v>
       </c>
       <c r="I30" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s">
         <v>25</v>
@@ -19697,13 +19739,13 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
         <v>66</v>
       </c>
       <c r="I31" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s">
         <v>25</v>
@@ -19774,13 +19816,13 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H32" t="s">
         <v>67</v>
       </c>
       <c r="I32" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J32" t="s">
         <v>25</v>
@@ -19851,13 +19893,13 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H33" t="s">
         <v>68</v>
       </c>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J33" t="s">
         <v>25</v>
@@ -19928,13 +19970,13 @@
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H34" t="s">
         <v>69</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J34" t="s">
         <v>25</v>
@@ -20005,13 +20047,13 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H35" t="s">
         <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J35" t="s">
         <v>25</v>
@@ -20082,13 +20124,13 @@
         <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H36" t="s">
         <v>71</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J36" t="s">
         <v>25</v>
@@ -20159,13 +20201,13 @@
         <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H37" t="s">
         <v>72</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J37" t="s">
         <v>25</v>
@@ -20236,13 +20278,13 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H38" t="s">
         <v>73</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J38" t="s">
         <v>25</v>
@@ -20313,13 +20355,13 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
         <v>74</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J39" t="s">
         <v>25</v>
@@ -20390,13 +20432,13 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H40" t="s">
         <v>75</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J40" t="s">
         <v>25</v>
@@ -20467,13 +20509,13 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J41" t="s">
         <v>25</v>
